--- a/直流单臂电桥.xlsx
+++ b/直流单臂电桥.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6C3DAF-59FA-4528-871D-08697D5272AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AD779B-AE24-4739-85DB-5942F0EC38C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>R0</t>
   </si>
@@ -357,18 +357,6 @@
   </si>
   <si>
     <t>单臂电桥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authored by Axolyz.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Licensed by GPL v3.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -817,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -833,10 +821,13 @@
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1176,26 +1167,6 @@
       <c r="E33" s="12">
         <f>D33/(C33/B33)</f>
         <v>25029.311999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
